--- a/LearnSelinium/src/main/java/week6/day1/learn excell/CreateLead.xlsx
+++ b/LearnSelinium/src/main/java/week6/day1/learn excell/CreateLead.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5589474-8437-43E8-9F9F-FC905365B333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -399,22 +400,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="213" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -442,7 +443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -456,7 +457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -470,7 +471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -490,24 +491,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
